--- a/Income/UNP_inc.xlsx
+++ b/Income/UNP_inc.xlsx
@@ -2055,16 +2055,16 @@
         <v>0.4699</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.4586</v>
+        <v>0.4989</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.4933</v>
+        <v>0.5323</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.5287</v>
+        <v>0.5653</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.5539</v>
+        <v>0.5903</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.5819</v>
